--- a/biology/Microbiologie/Xanthomonadaceae/Xanthomonadaceae.xlsx
+++ b/biology/Microbiologie/Xanthomonadaceae/Xanthomonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Xanthomonadaceae sont une famille de protéobactéries classée dans son propre ordre, les Xanthomonadales.
 On trouve notamment dans ce groupe l'espèce Xanthomonas campestris, d'une importance vitale pour la production industrielle d'un exopolysaccharide, le xanthane, ainsi que l'espèce Stenotrophomonas maltophilia.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (11 août 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (11 août 2014) :
 Gynumella
 Aquimonas
 Arenimonas
